--- a/raport.xlsx
+++ b/raport.xlsx
@@ -12,60 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="63">
   <si>
     <t>Correctly Classified Instances</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67.7083 %</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>61.194</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Incorrectly Classified Instances</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32.2917 %</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>38.806</t>
   </si>
   <si>
     <t>Kappa statistic</t>
   </si>
   <si>
-    <t>0.6055</t>
+    <t>0.5499</t>
   </si>
   <si>
     <t>Mean absolute error</t>
   </si>
   <si>
-    <t>0.0923</t>
+    <t>0.0611</t>
   </si>
   <si>
     <t>Root mean squared error</t>
   </si>
   <si>
-    <t>0.2327</t>
+    <t>0.1833</t>
   </si>
   <si>
     <t>Relative absolute error</t>
   </si>
   <si>
-    <t>49.0244 %</t>
+    <t>54.8413 %</t>
   </si>
   <si>
     <t>Root relative squared error</t>
   </si>
   <si>
-    <t>76.0087 %</t>
+    <t>77.8614 %</t>
   </si>
   <si>
     <t>Total Number of Instances</t>
   </si>
   <si>
-    <t>96</t>
+    <t>134</t>
   </si>
   <si>
     <t>a</t>
@@ -95,61 +98,109 @@
     <t>i</t>
   </si>
   <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
     <t>&lt;-- classified as</t>
   </si>
   <si>
-    <t>8</t>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  a = OWOCE-MORZA</t>
+    <t xml:space="preserve">  a = TEX-MEX</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b = MIESA-BIALE</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c = DESERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  d = WOLOWINA</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  b = RYBY</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>6</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">  c = DESERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  d = SERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  e = JAGNIECINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  f = MAKARONY</t>
+    <t xml:space="preserve">  e = SERY</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t xml:space="preserve">  g = MIESA-CZERWONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  h = MIESA-BIALE</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  i = APERITIF</t>
+    <t xml:space="preserve">  f = MIESA-CZERWONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  g = DROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  h = JAGNIECINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  i = PRZYSTAWKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  j = OWOCE-MORZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  k = MAKARONY</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  l = APERITIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  m = SAMO-W-SOBIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  n = SUSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  o = BARANINA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p = RYBY</t>
   </si>
 </sst>
 </file>
@@ -194,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -210,384 +261,971 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
         <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
